--- a/data/transfer_test_data.xlsx
+++ b/data/transfer_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12220" tabRatio="846"/>
+    <workbookView windowHeight="17020" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="fhc_to_fhc" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="6"/>
